--- a/wxdgaming.game.server/src/cfg/任务成就.xlsx
+++ b/wxdgaming.game.server/src/cfg/任务成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
   <si>
     <t>任务集合</t>
   </si>
@@ -257,130 +257,136 @@
     <t>max_lv</t>
   </si>
   <si>
+    <t>conditionList</t>
+  </si>
+  <si>
+    <t>rewards</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wxdgaming.game.server.bean.task.TaskType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;wxdgaming.boot2.core.lang.condition.Condition&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;wxdgaming.game.server.bean.goods.ItemCfg&gt;</t>
+  </si>
+  <si>
+    <t>主键id</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>上一个任务ID</t>
+  </si>
+  <si>
+    <t>下一个任务ID</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务说明</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>任务条件</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>杀怪</t>
+  </si>
+  <si>
+    <t>击杀 {} 只怪物</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
+  </si>
+  <si>
+    <t>[{"cfg":1,"num":1},{"cfg":3,"num":1}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":30}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":40}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":50}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":60}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
+  </si>
+  <si>
+    <t>等级提升至 {} 级</t>
+  </si>
+  <si>
+    <t>[{"k1":"Lv","update":"Max","target":5}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":150}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":200}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":250}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"Lv","update":"Max","target":10}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":800}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":1100}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":1400}]</t>
+  </si>
+  <si>
+    <t>[{"k1":"KillMonster","update":"Add","target":1700}]</t>
+  </si>
+  <si>
+    <t>成就集合</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>condition</t>
   </si>
   <si>
-    <t>rewards</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wxdgaming.chargame.server.bean.task.TaskType</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>wxdgaming.boot.core.lang.task.Condition</t>
-  </si>
-  <si>
-    <t>List&lt;wxdgaming.chargame.server.bean.bag.ItemCfg&gt;</t>
-  </si>
-  <si>
-    <t>主键id</t>
-  </si>
-  <si>
-    <t>任务类型</t>
-  </si>
-  <si>
-    <t>上一个任务ID</t>
-  </si>
-  <si>
-    <t>下一个任务ID</t>
-  </si>
-  <si>
-    <t>任务名称</t>
-  </si>
-  <si>
-    <t>任务说明</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>任务条件</t>
-  </si>
-  <si>
-    <t>任务奖励</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>杀怪</t>
-  </si>
-  <si>
-    <t>击杀 {} 只怪物</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":10}</t>
-  </si>
-  <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":1}]</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":20}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":30}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":40}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":50}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":60}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":70}</t>
-  </si>
-  <si>
-    <t>等级提升至 {} 级</t>
-  </si>
-  <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":5}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":100}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":150}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":200}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":250}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":300}</t>
-  </si>
-  <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":10}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":500}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":800}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":1100}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":1400}</t>
-  </si>
-  <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":1700}</t>
-  </si>
-  <si>
-    <t>成就集合</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>wxdgaming.boot2.core.lang.condition.Condition</t>
   </si>
   <si>
     <t>成就类型</t>
@@ -395,94 +401,115 @@
     <t>升级</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":1}</t>
+    <t>{"k1":"Lv","update":"Max","target":1}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":10}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":2}</t>
+    <t>{"k1":"Lv","update":"Max","target":2}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":11}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":3}</t>
+    <t>{"k1":"Lv","update":"Max","target":3}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":12}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":4}</t>
+    <t>{"k1":"Lv","update":"Max","target":4}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":13}]</t>
   </si>
   <si>
+    <t>{"k1":"Lv","update":"Max","target":5}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":14}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":6}</t>
+    <t>{"k1":"Lv","update":"Max","target":6}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":15}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":7}</t>
+    <t>{"k1":"Lv","update":"Max","target":7}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":16}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":8}</t>
+    <t>{"k1":"Lv","update":"Max","target":8}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":17}]</t>
   </si>
   <si>
-    <t>{"k1":"Lv","k2":"0","k3":"0","updateType":"Max","target":9}</t>
+    <t>{"k1":"Lv","update":"Max","target":9}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":18}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":200}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":19}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":500}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":20}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":800}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":21}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":1100}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":22}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":1400}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":23}]</t>
   </si>
   <si>
+    <t>{"k1":"KillMonster","update":"Add","target":1700}</t>
+  </si>
+  <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":24}]</t>
   </si>
   <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":2000}</t>
+    <t>{"k1":"KillMonster","update":"Add","target":2000}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":25}]</t>
   </si>
   <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":2300}</t>
+    <t>{"k1":"KillMonster","update":"Add","target":2300}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":26}]</t>
   </si>
   <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":2600}</t>
+    <t>{"k1":"KillMonster","update":"Add","target":2600}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":27}]</t>
   </si>
   <si>
-    <t>{"k1":"KillMonster","k2":"0","k3":"0","updateType":"Add","target":2900}</t>
+    <t>{"k1":"KillMonster","update":"Add","target":2900}</t>
   </si>
   <si>
     <t>[{"cfg":1,"num":10},{"cfg":3,"num":28}]</t>
@@ -657,12 +684,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1474,14 +1501,14 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="6" width="16.75" style="1" customWidth="1"/>
@@ -1491,7 +1518,7 @@
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1532,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:10">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:10">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:10">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1697,7 +1724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:10">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1729,7 +1756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:10">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1761,7 +1788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:10">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1793,7 +1820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:10">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1825,7 +1852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:10">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1857,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:10">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1889,7 +1916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1921,7 +1948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:10">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1953,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:10">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1985,7 +2012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>12</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:10">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>13</v>
       </c>
@@ -2049,7 +2076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2081,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2113,7 +2140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2145,7 +2172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2177,7 +2204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2209,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2297,10 +2324,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2315,7 +2342,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -2327,7 +2354,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2353,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2373,13 +2400,13 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2399,24 +2426,24 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2439,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -2451,13 +2478,13 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2465,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -2477,13 +2504,13 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2491,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -2503,13 +2530,13 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2517,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
@@ -2529,13 +2556,13 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -2555,13 +2582,13 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2569,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -2581,13 +2608,13 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2595,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -2607,13 +2634,13 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2621,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -2633,13 +2660,13 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2647,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -2659,10 +2686,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2685,10 +2712,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2711,10 +2738,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2737,10 +2764,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2763,10 +2790,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2789,10 +2816,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2815,10 +2842,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2841,10 +2868,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2867,10 +2894,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2893,10 +2920,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2919,13 +2946,12 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25"/>
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C25:C1048576">
     <cfRule type="containsText" dxfId="0" priority="8" operator="between" text="102133005">

--- a/wxdgaming.game.server/src/cfg/任务成就.xlsx
+++ b/wxdgaming.game.server/src/cfg/任务成就.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_task" sheetId="4" r:id="rId1"/>
@@ -266,7 +266,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.game.server.bean.task.TaskType</t>
+    <t>wxdgaming.game.message.task.TaskType</t>
   </si>
   <si>
     <t>string</t>
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/wxdgaming.game.server/src/cfg/任务成就.xlsx
+++ b/wxdgaming.game.server/src/cfg/任务成就.xlsx
@@ -317,7 +317,7 @@
     <t>[{"k1":"KillMonster","update":"Add","target":10}]</t>
   </si>
   <si>
-    <t>[{"cfg":1,"num":1},{"cfg":3,"num":1}]</t>
+    <t>[{"cfgId":1,"num":1},{"cfgId":3,"num":1}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":20}]</t>
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/wxdgaming.game.server/src/cfg/任务成就.xlsx
+++ b/wxdgaming.game.server/src/cfg/任务成就.xlsx
@@ -341,7 +341,7 @@
     <t>等级提升至 {} 级</t>
   </si>
   <si>
-    <t>[{"k1":"Lv","update":"Max","target":5}]</t>
+    <t>[{"k1":"Lv","update":"Replace","target":5}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":100}]</t>
@@ -359,7 +359,7 @@
     <t>[{"k1":"KillMonster","update":"Add","target":300}]</t>
   </si>
   <si>
-    <t>[{"k1":"Lv","update":"Max","target":10}]</t>
+    <t>[{"k1":"Lv","update":"Replace","target":10}]</t>
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":500}]</t>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/wxdgaming.game.server/src/cfg/任务成就.xlsx
+++ b/wxdgaming.game.server/src/cfg/任务成就.xlsx
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="97">
   <si>
     <t>任务集合</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>[{"k1":"KillMonster","update":"Add","target":70}]</t>
+  </si>
+  <si>
+    <t>等级提升</t>
   </si>
   <si>
     <t>等级提升至 {} 级</t>
@@ -1502,7 +1505,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1898,10 +1901,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1910,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>30</v>
@@ -1942,7 +1945,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>30</v>
@@ -1974,7 +1977,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2006,7 +2009,7 @@
         <v>100</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>30</v>
@@ -2038,7 +2041,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2070,7 +2073,7 @@
         <v>100</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2090,10 +2093,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2102,7 +2105,7 @@
         <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>30</v>
@@ -2134,7 +2137,7 @@
         <v>100</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>30</v>
@@ -2166,7 +2169,7 @@
         <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2198,7 +2201,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>30</v>
@@ -2230,7 +2233,7 @@
         <v>100</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>30</v>
@@ -2262,7 +2265,7 @@
         <v>100</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2344,7 +2347,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2385,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2400,7 +2403,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>11</v>
@@ -2426,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -2437,13 +2440,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>23</v>
@@ -2466,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2478,10 +2481,10 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2492,10 +2495,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2504,10 +2507,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2518,10 +2521,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2530,10 +2533,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2544,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2556,10 +2559,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2570,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2582,10 +2585,10 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2596,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2608,10 +2611,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2622,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2634,10 +2637,10 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2648,10 +2651,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2660,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2674,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2686,10 +2689,10 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2712,10 +2715,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2738,10 +2741,10 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2764,10 +2767,10 @@
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2790,10 +2793,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2816,10 +2819,10 @@
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2842,10 +2845,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2868,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2894,10 +2897,10 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2920,10 +2923,10 @@
         <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2946,10 +2949,10 @@
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
